--- a/Documents/PromptAreana_V1.xlsx
+++ b/Documents/PromptAreana_V1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="190" yWindow="550" windowWidth="18880" windowHeight="6740" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Welcome Page" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Prompting Space" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Prompt Evaluation" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Leader Board" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Payment" sheetId="6" r:id="rId9"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Welcome Page" sheetId="2" r:id="rId2"/>
+    <sheet name="Prompting Space" sheetId="3" r:id="rId3"/>
+    <sheet name="Prompt Evaluation" sheetId="4" r:id="rId4"/>
+    <sheet name="Leader Board" sheetId="5" r:id="rId5"/>
+    <sheet name="Payment" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>S No</t>
   </si>
@@ -139,31 +142,41 @@
   <si>
     <t>Static page mentioning we are yet to charge you continuously using prompterana for free</t>
   </si>
+  <si>
+    <t>python and supabase</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,20 +186,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -198,6 +203,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -206,6 +215,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,66 +228,54 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -463,27 +465,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,83 +513,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="45.0" customHeight="1">
-      <c r="A5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="45.0" customHeight="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="45.0" customHeight="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -593,28 +602,29 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C5:C7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,44 +647,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -682,28 +692,29 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,44 +737,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="76.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -771,29 +782,32 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="4" width="29.25"/>
-    <col customWidth="1" min="5" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,55 +830,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="76.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="78.0" customHeight="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="78" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -872,29 +888,30 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="4" width="29.25"/>
-    <col customWidth="1" min="5" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,49 +934,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="76.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="78.0" customHeight="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="78" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -968,29 +985,30 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
-    <col customWidth="1" min="4" max="4" width="29.25"/>
-    <col customWidth="1" min="5" max="5" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="27.38"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,49 +1031,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="76.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="105.75" customHeight="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="105.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="78.0" customHeight="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="78" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="78.0" customHeight="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="78" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1064,6 +1082,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>